--- a/data/format/サンプルテスト調書フォーマット.xlsx
+++ b/data/format/サンプルテスト調書フォーマット.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nyham\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nyham\work\sampletest_3\agent-inbox-langgraph-example\data\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{781C3E29-C3FE-4861-9966-C1B3A4749F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7425ECBD-5354-4019-A815-40B72DF5E3D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{4C512478-1C13-41C1-9E6E-B3EE66F68047}"/>
+    <workbookView xWindow="6720" yWindow="2775" windowWidth="19605" windowHeight="11595" xr2:uid="{4C512478-1C13-41C1-9E6E-B3EE66F68047}"/>
   </bookViews>
   <sheets>
     <sheet name="テスト結果" sheetId="1" r:id="rId1"/>
@@ -178,11 +178,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -193,9 +190,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -215,9 +209,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -255,7 +249,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -361,7 +355,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -503,7 +497,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -511,11 +505,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F035313-0E3D-48BA-AEB2-3EF806F1FE10}">
-  <dimension ref="B3:G27"/>
+  <dimension ref="B3:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -525,169 +517,285 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>1</v>
       </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>2</v>
       </c>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>3</v>
       </c>
       <c r="C14" s="1"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>1</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>2</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>3</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B20" s="3">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B21" s="3" t="s">
-        <v>11</v>
+      <c r="B21" s="3">
+        <v>5</v>
       </c>
       <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B22" s="3" t="s">
-        <v>12</v>
+      <c r="B22" s="3">
+        <v>6</v>
       </c>
       <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B23" s="3" t="s">
-        <v>13</v>
+      <c r="B23" s="3">
+        <v>7</v>
       </c>
       <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B24" s="3">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="B25" s="3">
+        <v>9</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B26" s="3" t="s">
-        <v>17</v>
+      <c r="B26" s="3">
+        <v>10</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B27" s="3" t="s">
-        <v>18</v>
+      <c r="B27" s="3">
+        <v>11</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B28" s="3">
+        <v>12</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B29" s="3">
+        <v>13</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B30" s="3">
+        <v>14</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B31" s="3">
+        <v>15</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
